--- a/Aims Lab.xlsx
+++ b/Aims Lab.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shivangi\aims\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="9495" windowHeight="4635"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="135">
   <si>
     <t>Date</t>
   </si>
@@ -418,13 +423,16 @@
   </si>
   <si>
     <t>ATS</t>
+  </si>
+  <si>
+    <t>This is test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -560,6 +568,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -606,7 +622,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -638,9 +654,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -672,6 +689,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -847,14 +865,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="I162" sqref="I162"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="A180" sqref="A180"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" style="2" customWidth="1"/>
@@ -870,7 +888,7 @@
     <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -896,7 +914,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43258</v>
       </c>
@@ -910,7 +928,7 @@
         <v>4140</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>43258</v>
       </c>
@@ -927,7 +945,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43258</v>
       </c>
@@ -944,7 +962,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>43258</v>
       </c>
@@ -958,7 +976,7 @@
         <v>3980</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43258</v>
       </c>
@@ -975,7 +993,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>43258</v>
       </c>
@@ -989,7 +1007,7 @@
         <v>8480</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>43258</v>
       </c>
@@ -1003,7 +1021,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>43258</v>
       </c>
@@ -1020,7 +1038,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>43258</v>
       </c>
@@ -1034,7 +1052,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>43258</v>
       </c>
@@ -1051,7 +1069,7 @@
         <v>3330</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>43258</v>
       </c>
@@ -1065,7 +1083,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>43258</v>
       </c>
@@ -1079,7 +1097,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>43258</v>
       </c>
@@ -1096,7 +1114,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>43258</v>
       </c>
@@ -1113,7 +1131,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>43258</v>
       </c>
@@ -1127,7 +1145,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>43258</v>
       </c>
@@ -1144,7 +1162,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>43258</v>
       </c>
@@ -1161,7 +1179,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>43258</v>
       </c>
@@ -1175,7 +1193,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>43258</v>
       </c>
@@ -1192,7 +1210,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>43258</v>
       </c>
@@ -1212,7 +1230,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>43258</v>
       </c>
@@ -1226,7 +1244,7 @@
         <v>9540</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -1237,7 +1255,7 @@
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:10" ht="15.75" thickTop="1">
+    <row r="24" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="11" t="s">
         <v>32</v>
@@ -1258,10 +1276,10 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -1287,7 +1305,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" thickBot="1">
+    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>43228</v>
       </c>
@@ -1299,7 +1317,7 @@
       </c>
       <c r="J27" s="9"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>43228</v>
       </c>
@@ -1310,7 +1328,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>43228</v>
       </c>
@@ -1327,7 +1345,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>43228</v>
       </c>
@@ -1344,7 +1362,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>43228</v>
       </c>
@@ -1358,7 +1376,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>43228</v>
       </c>
@@ -1372,7 +1390,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>43228</v>
       </c>
@@ -1389,7 +1407,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>43228</v>
       </c>
@@ -1400,7 +1418,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>43228</v>
       </c>
@@ -1414,7 +1432,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>43228</v>
       </c>
@@ -1428,7 +1446,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>43228</v>
       </c>
@@ -1442,7 +1460,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>43228</v>
       </c>
@@ -1456,7 +1474,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>43228</v>
       </c>
@@ -1467,7 +1485,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>43228</v>
       </c>
@@ -1481,10 +1499,10 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="1" t="s">
         <v>32</v>
@@ -1503,13 +1521,13 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -1535,7 +1553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>43261</v>
       </c>
@@ -1552,7 +1570,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>43261</v>
       </c>
@@ -1566,7 +1584,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>43261</v>
       </c>
@@ -1583,7 +1601,7 @@
         <v>3184</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>43261</v>
       </c>
@@ -1603,7 +1621,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>43261</v>
       </c>
@@ -1620,7 +1638,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>43261</v>
       </c>
@@ -1637,7 +1655,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>43261</v>
       </c>
@@ -1654,7 +1672,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>43261</v>
       </c>
@@ -1671,7 +1689,7 @@
         <v>11700</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>43261</v>
       </c>
@@ -1688,7 +1706,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>43261</v>
       </c>
@@ -1708,7 +1726,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>43261</v>
       </c>
@@ -1728,10 +1746,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="1" t="s">
         <v>32</v>
@@ -1750,13 +1768,13 @@
         <v>72400</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
@@ -1782,7 +1800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>43260</v>
       </c>
@@ -1799,7 +1817,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>43260</v>
       </c>
@@ -1816,7 +1834,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>43260</v>
       </c>
@@ -1833,7 +1851,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>43260</v>
       </c>
@@ -1850,7 +1868,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>43260</v>
       </c>
@@ -1867,7 +1885,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>43260</v>
       </c>
@@ -1881,7 +1899,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>43260</v>
       </c>
@@ -1898,7 +1916,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>43260</v>
       </c>
@@ -1912,7 +1930,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>43260</v>
       </c>
@@ -1926,37 +1944,37 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>43260</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>43260</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>43260</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>43260</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>43260</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>43260</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>43260</v>
       </c>
@@ -1967,12 +1985,12 @@
         <v>-1930</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>32</v>
       </c>
@@ -1990,7 +2008,7 @@
         <v>4280</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
@@ -2016,7 +2034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>43257</v>
       </c>
@@ -2033,7 +2051,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>43257</v>
       </c>
@@ -2050,7 +2068,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>43257</v>
       </c>
@@ -2067,7 +2085,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>43257</v>
       </c>
@@ -2081,7 +2099,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>43257</v>
       </c>
@@ -2095,7 +2113,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>43257</v>
       </c>
@@ -2112,7 +2130,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>43257</v>
       </c>
@@ -2129,7 +2147,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>43257</v>
       </c>
@@ -2143,12 +2161,12 @@
         <v>300</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>43257</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="1" t="s">
         <v>32</v>
@@ -2167,13 +2185,13 @@
         <v>7760</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>0</v>
       </c>
@@ -2199,7 +2217,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>43256</v>
       </c>
@@ -2213,7 +2231,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>43256</v>
       </c>
@@ -2230,7 +2248,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>43256</v>
       </c>
@@ -2247,7 +2265,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>43256</v>
       </c>
@@ -2264,7 +2282,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>43256</v>
       </c>
@@ -2278,7 +2296,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>43256</v>
       </c>
@@ -2292,7 +2310,7 @@
         <v>3860</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>43256</v>
       </c>
@@ -2306,7 +2324,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>43256</v>
       </c>
@@ -2320,7 +2338,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>43256</v>
       </c>
@@ -2337,7 +2355,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>43256</v>
       </c>
@@ -2354,7 +2372,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>43256</v>
       </c>
@@ -2368,10 +2386,10 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="1" t="s">
         <v>32</v>
@@ -2390,13 +2408,13 @@
         <v>140</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>0</v>
       </c>
@@ -2422,7 +2440,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>43255</v>
       </c>
@@ -2436,7 +2454,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>43255</v>
       </c>
@@ -2450,7 +2468,7 @@
         <v>3830</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>43255</v>
       </c>
@@ -2464,7 +2482,7 @@
         <v>17600</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>43255</v>
       </c>
@@ -2478,7 +2496,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>43255</v>
       </c>
@@ -2492,7 +2510,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>43255</v>
       </c>
@@ -2506,7 +2524,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>43255</v>
       </c>
@@ -2520,7 +2538,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>43255</v>
       </c>
@@ -2534,7 +2552,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>43255</v>
       </c>
@@ -2548,7 +2566,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>43255</v>
       </c>
@@ -2562,7 +2580,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>43255</v>
       </c>
@@ -2582,7 +2600,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>43255</v>
       </c>
@@ -2599,7 +2617,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>43255</v>
       </c>
@@ -2616,7 +2634,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>43255</v>
       </c>
@@ -2633,7 +2651,7 @@
         <v>43253</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>43255</v>
       </c>
@@ -2653,7 +2671,7 @@
         <v>43253</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>43255</v>
       </c>
@@ -2676,7 +2694,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>43255</v>
       </c>
@@ -2693,7 +2711,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>43255</v>
       </c>
@@ -2707,7 +2725,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>43255</v>
       </c>
@@ -2724,7 +2742,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>43255</v>
       </c>
@@ -2741,7 +2759,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
         <v>32</v>
       </c>
@@ -2759,7 +2777,7 @@
         <v>34740</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>0</v>
       </c>
@@ -2785,7 +2803,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>43254</v>
       </c>
@@ -2802,7 +2820,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>43254</v>
       </c>
@@ -2819,7 +2837,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>43254</v>
       </c>
@@ -2833,7 +2851,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>43254</v>
       </c>
@@ -2847,7 +2865,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>43254</v>
       </c>
@@ -2861,7 +2879,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>43254</v>
       </c>
@@ -2875,7 +2893,7 @@
         <v>16360</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>43254</v>
       </c>
@@ -2889,7 +2907,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>43254</v>
       </c>
@@ -2903,7 +2921,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>43254</v>
       </c>
@@ -2920,7 +2938,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>43254</v>
       </c>
@@ -2937,7 +2955,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>43254</v>
       </c>
@@ -2951,7 +2969,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>43254</v>
       </c>
@@ -2965,7 +2983,7 @@
         <v>12320</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>43254</v>
       </c>
@@ -2979,7 +2997,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>43254</v>
       </c>
@@ -2993,7 +3011,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>43254</v>
       </c>
@@ -3010,7 +3028,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>43254</v>
       </c>
@@ -3024,7 +3042,7 @@
         <v>2730</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>43254</v>
       </c>
@@ -3041,7 +3059,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>43254</v>
       </c>
@@ -3055,10 +3073,10 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B158" s="1" t="s">
         <v>32</v>
       </c>
@@ -3076,7 +3094,7 @@
         <v>34030</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>0</v>
       </c>
@@ -3102,7 +3120,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>43253</v>
       </c>
@@ -3116,7 +3134,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>43253</v>
       </c>
@@ -3136,7 +3154,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>43253</v>
       </c>
@@ -3150,7 +3168,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>43253</v>
       </c>
@@ -3164,7 +3182,7 @@
         <v>11190</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>43253</v>
       </c>
@@ -3178,7 +3196,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>43253</v>
       </c>
@@ -3192,7 +3210,7 @@
         <v>15230</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>43253</v>
       </c>
@@ -3206,7 +3224,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>43253</v>
       </c>
@@ -3220,7 +3238,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>43253</v>
       </c>
@@ -3234,7 +3252,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>43253</v>
       </c>
@@ -3248,7 +3266,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>43253</v>
       </c>
@@ -3265,7 +3283,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>43253</v>
       </c>
@@ -3279,7 +3297,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>43253</v>
       </c>
@@ -3293,7 +3311,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>43253</v>
       </c>
@@ -3310,10 +3328,10 @@
         <v>133</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="1" t="s">
         <v>32</v>
@@ -3332,49 +3350,51 @@
         <v>33230</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
     </row>
-    <row r="179" spans="1:1">
-      <c r="A179" s="3"/>
-    </row>
-    <row r="180" spans="1:1">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
     </row>
-    <row r="186" spans="1:1">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
     </row>
   </sheetData>
@@ -3383,24 +3403,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Aims Lab.xlsx
+++ b/Aims Lab.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="135">
   <si>
     <t>Date</t>
   </si>
@@ -418,6 +418,9 @@
   </si>
   <si>
     <t>ATS</t>
+  </si>
+  <si>
+    <t>IPD Bill not Recived</t>
   </si>
 </sst>
 </file>
@@ -851,7 +854,7 @@
   <dimension ref="A1:J191"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="I162" sqref="I162"/>
+      <selection activeCell="H139" sqref="H139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2800,6 +2803,9 @@
       </c>
       <c r="E139" s="2">
         <v>490</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="140" spans="1:8">

--- a/Aims Lab.xlsx
+++ b/Aims Lab.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="134">
   <si>
     <t>Date</t>
   </si>
@@ -418,9 +418,6 @@
   </si>
   <si>
     <t>ATS</t>
-  </si>
-  <si>
-    <t>IPD Bill not Recived</t>
   </si>
 </sst>
 </file>
@@ -854,7 +851,7 @@
   <dimension ref="A1:J191"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="H139" sqref="H139"/>
+      <selection activeCell="H140" sqref="H140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2803,9 +2800,6 @@
       </c>
       <c r="E139" s="2">
         <v>490</v>
-      </c>
-      <c r="H139" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="140" spans="1:8">

--- a/Aims Lab.xlsx
+++ b/Aims Lab.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="135">
   <si>
     <t>Date</t>
   </si>
@@ -418,6 +418,9 @@
   </si>
   <si>
     <t>ATS</t>
+  </si>
+  <si>
+    <t>This is tests</t>
   </si>
 </sst>
 </file>
@@ -2818,6 +2821,9 @@
       <c r="E140" s="2">
         <v>390</v>
       </c>
+      <c r="H140" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="3">
